--- a/StructureDefinition-mp4p-schwangerschaft.xlsx
+++ b/StructureDefinition-mp4p-schwangerschaft.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>O@p</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -2436,12 +2439,12 @@
         <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2452,28 +2455,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2523,13 +2526,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2572,25 +2575,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2641,19 +2644,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2690,7 +2693,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2702,13 +2705,13 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2759,13 +2762,13 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2783,7 +2786,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2797,11 +2800,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2820,16 +2823,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2867,19 +2870,19 @@
         <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
@@ -2891,7 +2894,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2903,7 +2906,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2928,7 +2931,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -2937,19 +2940,19 @@
         <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2999,19 +3002,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3037,7 +3040,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3048,7 +3051,7 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>80</v>
@@ -3057,19 +3060,19 @@
         <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3119,19 +3122,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3168,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -3177,19 +3180,19 @@
         <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3239,19 +3242,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3277,7 +3280,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3291,25 +3294,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3359,7 +3362,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3371,7 +3374,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3397,7 +3400,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3417,19 +3420,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3455,13 +3458,13 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>80</v>
@@ -3479,7 +3482,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3491,7 +3494,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3517,7 +3520,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3537,19 +3540,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3575,13 +3578,13 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>80</v>
@@ -3599,7 +3602,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3611,7 +3614,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3637,7 +3640,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3648,28 +3651,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3719,19 +3722,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3768,10 +3771,10 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3780,16 +3783,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3815,13 +3818,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3839,19 +3842,19 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3877,18 +3880,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3900,16 +3903,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3959,19 +3962,19 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>80</v>
@@ -3983,7 +3986,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3997,11 +4000,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4020,16 +4023,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4079,7 +4082,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4103,7 +4106,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4117,11 +4120,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4140,16 +4143,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4199,7 +4202,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4211,7 +4214,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -4223,7 +4226,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4237,11 +4240,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4254,25 +4257,25 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4321,7 +4324,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4333,7 +4336,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
@@ -4345,7 +4348,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4379,20 +4382,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4441,7 +4444,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4453,22 +4456,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4479,11 +4482,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4499,20 +4502,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4561,7 +4564,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4573,19 +4576,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4599,11 +4602,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4619,19 +4622,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4681,7 +4684,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4693,19 +4696,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4727,41 +4730,41 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>80</v>
@@ -4779,13 +4782,13 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>80</v>
@@ -4803,34 +4806,34 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4864,19 +4867,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4901,13 +4904,13 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
@@ -4925,7 +4928,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4937,7 +4940,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -4949,10 +4952,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4963,42 +4966,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5023,13 +5026,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -5047,37 +5050,37 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5085,7 +5088,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5096,7 +5099,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5108,13 +5111,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5165,13 +5168,13 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5189,7 +5192,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5203,11 +5206,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5226,16 +5229,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5273,19 +5276,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5297,7 +5300,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>80</v>
@@ -5309,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5331,34 +5334,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5395,17 +5398,17 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5420,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5426,10 +5429,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5443,44 +5446,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5490,7 +5493,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5529,7 +5532,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5541,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5550,10 +5553,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5567,7 +5570,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5578,7 +5581,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5590,13 +5593,13 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5647,13 +5650,13 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5671,7 +5674,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5685,11 +5688,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5708,16 +5711,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5755,19 +5758,19 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5779,7 +5782,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
@@ -5791,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5805,7 +5808,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5813,34 +5816,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5889,19 +5892,19 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
@@ -5910,10 +5913,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5927,7 +5930,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5938,7 +5941,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5947,19 +5950,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6009,19 +6012,19 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -6030,10 +6033,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6055,32 +6058,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6129,19 +6132,19 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
@@ -6150,10 +6153,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6178,7 +6181,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -6187,20 +6190,20 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6249,19 +6252,19 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -6270,10 +6273,10 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6298,7 +6301,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -6307,22 +6310,22 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6371,19 +6374,19 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -6392,10 +6395,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6409,7 +6412,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6420,7 +6423,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6429,22 +6432,22 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6493,19 +6496,19 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
@@ -6514,10 +6517,10 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6531,7 +6534,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6542,31 +6545,31 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6615,34 +6618,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6673,19 +6676,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6735,7 +6738,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6747,7 +6750,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6756,13 +6759,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6773,18 +6776,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6793,22 +6796,22 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6857,34 +6860,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6895,42 +6898,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6967,44 +6970,44 @@
         <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7015,44 +7018,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7101,34 +7104,34 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7139,7 +7142,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7150,7 +7153,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7162,13 +7165,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7219,13 +7222,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7280,13 +7283,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7325,17 +7328,17 @@
         <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7347,7 +7350,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -7373,10 +7376,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -7386,10 +7389,10 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7398,13 +7401,13 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7455,7 +7458,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7464,10 +7467,10 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
@@ -7479,7 +7482,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7493,7 +7496,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7504,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7516,13 +7519,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7573,13 +7576,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7611,7 +7614,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7622,7 +7625,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7631,19 +7634,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7693,19 +7696,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7714,13 +7717,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7731,7 +7734,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7751,20 +7754,20 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7813,7 +7816,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7825,22 +7828,22 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7859,34 +7862,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7923,47 +7926,47 @@
         <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7971,44 +7974,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8033,11 +8036,11 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8055,37 +8058,37 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8104,7 +8107,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8116,13 +8119,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8173,13 +8176,13 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -8197,7 +8200,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8211,11 +8214,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8234,16 +8237,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8281,19 +8284,19 @@
         <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8305,7 +8308,7 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
@@ -8317,7 +8320,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8334,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8339,34 +8342,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8415,7 +8418,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8427,7 +8430,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8436,10 +8439,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8453,7 +8456,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8464,7 +8467,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8476,13 +8479,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8533,13 +8536,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8557,7 +8560,7 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8571,11 +8574,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8594,16 +8597,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8641,19 +8644,19 @@
         <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8665,7 +8668,7 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
@@ -8677,7 +8680,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8702,31 +8705,31 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8775,19 +8778,19 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
@@ -8796,10 +8799,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8824,7 +8827,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8833,19 +8836,19 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8895,19 +8898,19 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
@@ -8916,10 +8919,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8933,7 +8936,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8944,29 +8947,29 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9015,19 +9018,19 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
@@ -9036,10 +9039,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9053,7 +9056,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9064,29 +9067,29 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9135,19 +9138,19 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
@@ -9156,10 +9159,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9173,7 +9176,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9184,7 +9187,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9193,22 +9196,22 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9257,19 +9260,19 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9278,10 +9281,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9295,7 +9298,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9306,7 +9309,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9315,22 +9318,22 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9379,19 +9382,19 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
@@ -9400,10 +9403,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9440,19 +9443,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9477,13 +9480,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9501,19 +9504,19 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
@@ -9522,10 +9525,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9539,11 +9542,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9562,19 +9565,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9599,13 +9602,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9623,7 +9626,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9635,25 +9638,25 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9661,7 +9664,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9684,19 +9687,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9748,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9757,7 +9760,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -9766,10 +9769,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9783,7 +9786,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9806,16 +9809,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9841,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9865,37 +9868,37 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9903,7 +9906,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9914,7 +9917,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9926,19 +9929,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9963,13 +9966,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9987,19 +9990,19 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
@@ -10008,10 +10011,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10025,7 +10028,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10048,16 +10051,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10107,37 +10110,37 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10145,7 +10148,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10168,16 +10171,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10227,37 +10230,37 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10265,7 +10268,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10288,19 +10291,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10349,7 +10352,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10361,7 +10364,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10370,10 +10373,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10398,7 +10401,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10410,13 +10413,13 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10467,13 +10470,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10491,7 +10494,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10505,11 +10508,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10528,16 +10531,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10587,7 +10590,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10599,7 +10602,7 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
@@ -10611,7 +10614,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10625,11 +10628,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10642,25 +10645,25 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10709,7 +10712,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10721,7 +10724,7 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10733,7 +10736,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10747,7 +10750,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10758,7 +10761,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10770,13 +10773,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10827,19 +10830,19 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10848,10 +10851,10 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10865,7 +10868,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10876,7 +10879,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10888,13 +10891,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10945,19 +10948,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10966,10 +10969,10 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10983,7 +10986,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10994,7 +10997,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -11006,19 +11009,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -11043,13 +11046,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -11067,31 +11070,31 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11105,7 +11108,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11128,19 +11131,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -11165,13 +11168,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -11189,7 +11192,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11201,19 +11204,19 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11227,7 +11230,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11238,7 +11241,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>80</v>
@@ -11250,17 +11253,17 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11309,19 +11312,19 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11333,7 +11336,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11347,7 +11350,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11358,7 +11361,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11370,13 +11373,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11427,19 +11430,19 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11448,10 +11451,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11465,7 +11468,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11485,19 +11488,19 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11547,7 +11550,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11559,7 +11562,7 @@
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
@@ -11568,10 +11571,10 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11605,19 +11608,19 @@
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11667,7 +11670,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11679,7 +11682,7 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11688,10 +11691,10 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11705,7 +11708,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11725,22 +11728,22 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11789,7 +11792,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11801,7 +11804,7 @@
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11810,10 +11813,10 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11827,7 +11830,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11838,7 +11841,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11850,13 +11853,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11907,13 +11910,13 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>80</v>
@@ -11931,7 +11934,7 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11945,11 +11948,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11968,16 +11971,16 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12027,7 +12030,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12039,7 +12042,7 @@
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
@@ -12051,7 +12054,7 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -12065,11 +12068,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12082,25 +12085,25 @@
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12149,7 +12152,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12161,7 +12164,7 @@
         <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
@@ -12173,7 +12176,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
@@ -12187,7 +12190,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12195,10 +12198,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>80</v>
@@ -12207,22 +12210,22 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
@@ -12247,13 +12250,13 @@
         <v>80</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>80</v>
@@ -12271,34 +12274,34 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12309,7 +12312,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12320,7 +12323,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
@@ -12329,22 +12332,22 @@
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12393,37 +12396,37 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -12431,7 +12434,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12442,7 +12445,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -12454,19 +12457,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12491,13 +12494,13 @@
         <v>80</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>80</v>
@@ -12515,19 +12518,19 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12536,10 +12539,10 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12553,11 +12556,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12576,19 +12579,19 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
@@ -12613,13 +12616,13 @@
         <v>80</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>80</v>
@@ -12637,7 +12640,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12649,25 +12652,25 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12675,7 +12678,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12701,16 +12704,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12759,7 +12762,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12771,7 +12774,7 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12780,10 +12783,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-mp4p-schwangerschaft.xlsx
+++ b/StructureDefinition-mp4p-schwangerschaft.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -271,10 +271,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,47 +293,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -388,10 +388,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2151,39 +2147,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.58203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2418,33 +2414,33 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2455,28 +2451,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2526,13 +2522,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2564,7 +2560,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2575,25 +2571,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2644,19 +2640,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2682,7 +2678,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2693,7 +2689,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2705,7 +2701,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -2768,7 +2764,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2931,28 +2927,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3002,19 +2998,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3040,7 +3036,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3051,28 +3047,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3122,19 +3118,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3160,7 +3156,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3171,28 +3167,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3242,19 +3238,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3280,7 +3276,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3294,25 +3290,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3362,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3374,7 +3370,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3400,7 +3396,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3420,19 +3416,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3458,31 +3454,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3494,7 +3490,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3520,7 +3516,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3540,19 +3536,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3578,31 +3574,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3614,7 +3610,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3640,7 +3636,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3651,28 +3647,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3722,19 +3718,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3760,7 +3756,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3771,11 +3767,11 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3783,16 +3779,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3818,43 +3814,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3880,18 +3876,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3903,16 +3899,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3962,31 +3958,31 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4000,11 +3996,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4023,16 +4019,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4082,7 +4078,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4102,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4120,7 +4116,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4149,7 +4145,7 @@
         <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>114</v>
@@ -4202,7 +4198,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4226,7 +4222,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4240,7 +4236,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4257,7 +4253,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4266,16 +4262,16 @@
         <v>111</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4324,7 +4320,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4348,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4362,7 +4358,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4382,20 +4378,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4444,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4456,22 +4452,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4482,11 +4478,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4502,20 +4498,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4564,7 +4560,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4576,19 +4572,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4602,11 +4598,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4622,19 +4618,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4684,7 +4680,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4696,19 +4692,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4722,7 +4718,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4730,110 +4726,110 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4867,19 +4863,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4904,14 +4900,14 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4940,7 +4936,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -4952,10 +4948,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4966,42 +4962,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5026,61 +5022,61 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5088,7 +5084,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5099,7 +5095,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5111,7 +5107,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>105</v>
@@ -5174,7 +5170,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5206,7 +5202,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5326,7 +5322,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5334,34 +5330,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5398,7 +5394,7 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
@@ -5408,7 +5404,7 @@
         <v>117</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5416,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5429,10 +5425,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5446,44 +5442,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5493,7 +5489,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5532,7 +5528,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5544,7 +5540,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5553,10 +5549,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5570,7 +5566,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5581,7 +5577,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5593,7 +5589,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>105</v>
@@ -5656,7 +5652,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5688,7 +5684,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5808,7 +5804,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5816,34 +5812,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5892,31 +5888,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5930,7 +5926,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5941,28 +5937,28 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6012,31 +6008,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6050,7 +6046,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6058,32 +6054,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6132,31 +6128,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6170,7 +6166,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6181,29 +6177,29 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6252,31 +6248,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6290,7 +6286,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6301,31 +6297,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6374,31 +6370,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6412,7 +6408,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6423,31 +6419,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6496,31 +6492,31 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6534,7 +6530,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6545,31 +6541,31 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6618,34 +6614,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6656,7 +6652,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6676,19 +6672,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6738,7 +6734,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6750,7 +6746,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6759,13 +6755,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6776,42 +6772,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6860,34 +6856,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6898,42 +6894,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6970,44 +6966,44 @@
         <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7018,44 +7014,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7104,34 +7100,34 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7153,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7165,13 +7161,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7228,7 +7224,7 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7260,7 +7256,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7286,10 +7282,10 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7376,10 +7372,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -7389,11 +7385,11 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7401,13 +7397,13 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7467,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>119</v>
@@ -7482,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7496,7 +7492,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7507,7 +7503,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7519,13 +7515,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7576,13 +7572,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7625,28 +7621,28 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7696,19 +7692,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7717,13 +7713,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7754,20 +7750,20 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7812,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7828,22 +7824,22 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7854,7 +7850,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7862,34 +7858,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7926,47 +7922,47 @@
         <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7974,44 +7970,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8036,11 +8032,11 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8058,37 +8054,37 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8096,7 +8092,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8107,7 +8103,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8119,7 +8115,7 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>105</v>
@@ -8182,7 +8178,7 @@
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -8214,7 +8210,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8334,7 +8330,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8342,34 +8338,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8418,7 +8414,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8430,7 +8426,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8439,10 +8435,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8456,7 +8452,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8467,7 +8463,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8479,7 +8475,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>105</v>
@@ -8542,7 +8538,7 @@
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8574,7 +8570,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8694,7 +8690,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8705,31 +8701,31 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8778,31 +8774,31 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8816,7 +8812,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8827,28 +8823,28 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8898,31 +8894,31 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8936,7 +8932,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8947,29 +8943,29 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9018,31 +9014,31 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9056,7 +9052,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9067,29 +9063,29 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9138,31 +9134,31 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9176,7 +9172,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9187,31 +9183,31 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9260,31 +9256,31 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9298,7 +9294,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9309,31 +9305,31 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9382,31 +9378,31 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9420,7 +9416,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9443,19 +9439,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9480,55 +9476,55 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH61" t="s" s="2">
+      <c r="AI61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9542,11 +9538,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9565,19 +9561,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9602,14 +9598,14 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9638,25 +9634,25 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9664,7 +9660,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9687,19 +9683,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9748,7 +9744,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9760,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -9769,10 +9765,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9786,7 +9782,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9809,16 +9805,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9844,61 +9840,61 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9906,7 +9902,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9917,7 +9913,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9929,19 +9925,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9966,55 +9962,55 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10028,7 +10024,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10051,16 +10047,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10110,37 +10106,37 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10148,7 +10144,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10171,16 +10167,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10230,37 +10226,37 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10268,7 +10264,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10291,19 +10287,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10352,7 +10348,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10364,19 +10360,19 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10390,7 +10386,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10401,7 +10397,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10413,7 +10409,7 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>105</v>
@@ -10476,7 +10472,7 @@
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10508,7 +10504,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10628,11 +10624,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10645,25 +10641,25 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10712,7 +10708,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10736,7 +10732,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10750,7 +10746,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10761,7 +10757,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10773,13 +10769,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10830,31 +10826,31 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10868,7 +10864,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10879,7 +10875,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10891,13 +10887,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10948,31 +10944,31 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AI73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10986,7 +10982,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10997,7 +10993,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -11009,19 +11005,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -11046,55 +11042,55 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11108,7 +11104,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11131,19 +11127,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -11168,14 +11164,14 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11204,19 +11200,19 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AM75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11230,7 +11226,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11241,7 +11237,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>80</v>
@@ -11253,17 +11249,17 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11312,19 +11308,19 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11336,7 +11332,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11350,7 +11346,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11361,7 +11357,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11373,13 +11369,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11430,19 +11426,19 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11451,10 +11447,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11468,7 +11464,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11488,19 +11484,19 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11550,7 +11546,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11562,7 +11558,7 @@
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
@@ -11571,10 +11567,10 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11588,7 +11584,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11608,19 +11604,19 @@
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11670,7 +11666,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11682,7 +11678,7 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11691,10 +11687,10 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11708,7 +11704,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11728,22 +11724,22 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11792,7 +11788,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11804,7 +11800,7 @@
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11813,10 +11809,10 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11830,7 +11826,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11841,7 +11837,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11853,7 +11849,7 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>105</v>
@@ -11916,7 +11912,7 @@
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>80</v>
@@ -11948,7 +11944,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12068,11 +12064,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12085,25 +12081,25 @@
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12152,7 +12148,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12176,7 +12172,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
@@ -12190,7 +12186,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12198,34 +12194,34 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
@@ -12250,14 +12246,14 @@
         <v>80</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12274,34 +12270,34 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12312,7 +12308,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12323,31 +12319,31 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J85" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12396,37 +12392,37 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -12434,7 +12430,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12445,7 +12441,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -12457,19 +12453,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12494,55 +12490,55 @@
         <v>80</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH86" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH86" t="s" s="2">
+      <c r="AI86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12556,11 +12552,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12579,19 +12575,19 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
@@ -12616,14 +12612,14 @@
         <v>80</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12640,7 +12636,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12652,25 +12648,25 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12678,7 +12674,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12704,16 +12700,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="M88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12762,7 +12758,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12774,7 +12770,7 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12783,10 +12779,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
